--- a/biology/Zoologie/Ibis_d'Australie/Ibis_d'Australie.xlsx
+++ b/biology/Zoologie/Ibis_d'Australie/Ibis_d'Australie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Threskiornis spinicollis
 L'Ibis d'Australie (Threskiornis spinicollis) est une espèce d'oiseaux de la famille des Threskiornithidae. Il est considéré comme animal utile car il se nourrit de sauterelles et de criquets.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 75 cm de haut. Il a le dos et les ailes noirs avec des reflets verts. Une partie du cou, le ventre et la queue sont blancs. Le bec est noir. Les pattes sont noires avec une partie rose en haut.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve sur tout le continent australien, en Indonésie, Nouvelle-Guinée, sur l'île Norfolk, accidentellement en Tasmanie. Il vit dans les prairies et marais australiens mais il est moins dépendant de l'eau que les autres ibis. Il n'hésite pas à vivre près des villes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en grandes bandes.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit essentiellement d'insectes comme les sauterelles et de chenilles mais aussi de grenouilles, de petits reptiles ou mammifères. Il n'est pas charognard.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ibis_d%27Australie</t>
+          <t>Ibis_d'Australie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il construit des nids en radeau sur l'eau. Les couvées sont de deux à trois œufs. La durée d'incubation est de 25 jours. Les deux parents construisent le nid, couvent et nourrissent les petits.
 </t>
